--- a/frontend/public/template.xlsx
+++ b/frontend/public/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitk-my.sharepoint.com/personal/rudradeep22_iitk_ac_in/Documents/Desktop/CarbonCalculator_Dashboard/frontend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC104836D1DF79625ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DC2A190-55F8-4118-BC1F-A62CBBCFBE48}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104836D1DF79625ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{907D9387-A5BB-4B0E-A870-0DAB8762F677}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Linkedin Posts</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Each row indicatesan OutReach event</t>
+  </si>
+  <si>
+    <t>Total Funding</t>
+  </si>
+  <si>
+    <t>Monthly Budget</t>
+  </si>
+  <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <t>Each cell represents budget for that month</t>
   </si>
 </sst>
 </file>
@@ -394,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,10 +419,13 @@
     <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +447,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -454,6 +478,9 @@
       </c>
       <c r="G2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/template.xlsx
+++ b/frontend/public/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitk-my.sharepoint.com/personal/rudradeep22_iitk_ac_in/Documents/Desktop/CarbonCalculator_Dashboard/frontend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104836D1DF79625ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{907D9387-A5BB-4B0E-A870-0DAB8762F677}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC104836D1DF79625ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3B7544-B874-4024-AB8B-BED380599AEC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>Linkedin Posts</t>
   </si>
@@ -45,37 +45,244 @@
     <t>Status of Net Zero Army Cantt</t>
   </si>
   <si>
-    <t>Outreach Activities</t>
-  </si>
-  <si>
-    <t>Each row indicates Linkedin post monthwise</t>
-  </si>
-  <si>
-    <t>Each row indicates News Paper Article monthwise</t>
-  </si>
-  <si>
-    <t>Each row indicates projects monthwise</t>
-  </si>
-  <si>
-    <t>Each row indicates Papers published monthwise</t>
-  </si>
-  <si>
-    <t>Single cell for percentage of progress</t>
-  </si>
-  <si>
-    <t>Each row indicatesan OutReach event</t>
-  </si>
-  <si>
     <t>Total Funding</t>
   </si>
   <si>
-    <t>Monthly Budget</t>
-  </si>
-  <si>
-    <t>Expenditure</t>
-  </si>
-  <si>
-    <t>Each cell represents budget for that month</t>
+    <t>Twitter Articles</t>
+  </si>
+  <si>
+    <t>Yearly Budget</t>
+  </si>
+  <si>
+    <t>Expenditure of Budget</t>
+  </si>
+  <si>
+    <t>Talks</t>
+  </si>
+  <si>
+    <t>Linkedin Followers</t>
+  </si>
+  <si>
+    <t>Twitter Followers</t>
+  </si>
+  <si>
+    <t>&lt;Jan&gt;451</t>
+  </si>
+  <si>
+    <t>&lt;2022&gt;326</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;457</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+  </si>
+  <si>
+    <t>&lt;Jan 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;June&gt;654</t>
+  </si>
+  <si>
+    <t>&lt;Feb&gt;89</t>
+  </si>
+  <si>
+    <t>&lt;2023&gt;327</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;458</t>
+  </si>
+  <si>
+    <t>&lt;Feb 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;139</t>
+  </si>
+  <si>
+    <t>&lt;March&gt;123</t>
+  </si>
+  <si>
+    <t>&lt;2024&gt;328</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;459</t>
+  </si>
+  <si>
+    <t>&lt;Mar 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;140</t>
+  </si>
+  <si>
+    <t>&lt;Apr&gt;200</t>
+  </si>
+  <si>
+    <t>&lt;2025&gt;329</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;460</t>
+  </si>
+  <si>
+    <t>&lt;Apr 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;141</t>
+  </si>
+  <si>
+    <t>&lt;May&gt;479</t>
+  </si>
+  <si>
+    <t>&lt;2026&gt;330</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;461</t>
+  </si>
+  <si>
+    <t>&lt;May 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;142</t>
+  </si>
+  <si>
+    <t>&lt;June&gt;228</t>
+  </si>
+  <si>
+    <t>&lt;2027&gt;331</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;462</t>
+  </si>
+  <si>
+    <t>&lt;Jun 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;143</t>
+  </si>
+  <si>
+    <t>&lt;2028&gt;332</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;463</t>
+  </si>
+  <si>
+    <t>&lt;Jul 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;144</t>
+  </si>
+  <si>
+    <t>&lt;2029&gt;333</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;464</t>
+  </si>
+  <si>
+    <t>&lt;Aug 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;145</t>
+  </si>
+  <si>
+    <t>&lt;2030&gt;334</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;465</t>
+  </si>
+  <si>
+    <t>&lt;Sept 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;146</t>
+  </si>
+  <si>
+    <t>&lt;2031&gt;335</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;466</t>
+  </si>
+  <si>
+    <t>&lt;Oct 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;147</t>
+  </si>
+  <si>
+    <t>&lt;2032&gt;336</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;467</t>
+  </si>
+  <si>
+    <t>&lt;Nov 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;148</t>
+  </si>
+  <si>
+    <t>&lt;2033&gt;337</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;468</t>
+  </si>
+  <si>
+    <t>&lt;Dec 2021&gt;10000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;149</t>
+  </si>
+  <si>
+    <t>&lt;2034&gt;338</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;469</t>
+  </si>
+  <si>
+    <t>&lt;Jan 2022&gt;8000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;150</t>
+  </si>
+  <si>
+    <t>&lt;2035&gt;339</t>
+  </si>
+  <si>
+    <t>&lt;Oct&gt;470</t>
+  </si>
+  <si>
+    <t>&lt;Feb 2022&gt;8000</t>
+  </si>
+  <si>
+    <t>&lt;July&gt;151</t>
+  </si>
+  <si>
+    <t>&lt;Mar 2022&gt;8000</t>
+  </si>
+  <si>
+    <t>&lt;Apr 2022&gt;8000</t>
+  </si>
+  <si>
+    <t>&lt;May 2022&gt;8000</t>
+  </si>
+  <si>
+    <t>&lt;Jun 2022&gt;8000</t>
+  </si>
+  <si>
+    <t>&lt;Jul 2022&gt;8000</t>
+  </si>
+  <si>
+    <t>&lt;Aug 2022&gt;8000</t>
+  </si>
+  <si>
+    <t>&lt;Sept 2022&gt;8000</t>
+  </si>
+  <si>
+    <t>&lt;Oct 2022&gt;8000</t>
+  </si>
+  <si>
+    <t>&lt;Nov 2022&gt;8000</t>
+  </si>
+  <si>
+    <t>&lt;Dec 2022&gt;8000</t>
   </si>
 </sst>
 </file>
@@ -137,10 +344,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,81 +609,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>800</v>
+      </c>
+      <c r="C2">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>5000</v>
+      </c>
+      <c r="J2">
+        <v>1220</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>2000</v>
+      </c>
+      <c r="M2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>194</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>5000</v>
+      </c>
+      <c r="J3">
+        <v>1700</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>234</v>
+      </c>
+      <c r="C4">
+        <v>993</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>5000</v>
+      </c>
+      <c r="J4">
+        <v>1920</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>5000</v>
+      </c>
+      <c r="J5">
+        <v>2200</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>451</v>
+      </c>
+      <c r="C6">
+        <v>247</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>5000</v>
+      </c>
+      <c r="J6">
+        <v>600</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>457</v>
+      </c>
+      <c r="C7">
+        <v>457</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>5000</v>
+      </c>
+      <c r="J7">
+        <v>1221</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>5000</v>
+      </c>
+      <c r="J8">
+        <v>3321</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>5000</v>
+      </c>
+      <c r="J9">
+        <v>4556</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10">
+        <v>5000</v>
+      </c>
+      <c r="J10">
+        <v>1990</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>5000</v>
+      </c>
+      <c r="J11">
+        <v>2189</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12">
+        <v>5000</v>
+      </c>
+      <c r="J12">
+        <v>2321</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13">
+        <v>5000</v>
+      </c>
+      <c r="J13">
+        <v>4323</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>2000</v>
+      </c>
+      <c r="J14">
+        <v>1212</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15">
+        <v>2000</v>
+      </c>
+      <c r="J15">
+        <v>1234</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>2000</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17">
+        <v>2000</v>
+      </c>
+      <c r="J17">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19">
+        <v>2000</v>
+      </c>
+      <c r="J19">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20">
+        <v>2000</v>
+      </c>
+      <c r="J20">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21">
+        <v>2000</v>
+      </c>
+      <c r="J21">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22">
+        <v>2000</v>
+      </c>
+      <c r="J22">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23">
+        <v>2000</v>
+      </c>
+      <c r="J23">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24">
+        <v>2000</v>
+      </c>
+      <c r="J24">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>2000</v>
+      </c>
+      <c r="J25">
+        <v>2344</v>
       </c>
     </row>
   </sheetData>
